--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3642468.829743294</v>
+        <v>3640581.248226893</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>573092.7123015109</v>
+        <v>151302.1242274867</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>233.6257157225928</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -713,13 +713,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>178.1932688030441</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>160.0179384138199</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>204.9124906477841</v>
       </c>
       <c r="I5" t="n">
-        <v>98.63122914173753</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,7 +950,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>35.87311879344071</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>50.05665370612845</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>274.3381105280097</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.016548818652819</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.7498680634315</v>
+        <v>169.0167291702124</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784674</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>5.562624396424313</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>204.1291651532052</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1661,7 +1661,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>12.68762643336711</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>148.9331594064104</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>97.12772045570682</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>143.0053956628069</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>51.95471194784024</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2530,16 +2530,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>29.01158916010115</v>
       </c>
       <c r="T28" t="n">
-        <v>190.6405752120375</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965524</v>
+        <v>42.92025750556989</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>90.21779139437412</v>
       </c>
       <c r="G31" t="n">
-        <v>6.749002612117543</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.710571738979</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523566</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3016,7 +3016,7 @@
         <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1272.344242153658</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1272.344242153658</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1272.344242153658</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1272.344242153658</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>861.3583373640504</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>443.3945292622373</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1736.252158680222</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1736.252158680222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.344242153658</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1309.714918859356</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C5" t="n">
-        <v>1309.714918859356</v>
+        <v>821.0484290197721</v>
       </c>
       <c r="D5" t="n">
-        <v>1309.714918859356</v>
+        <v>821.0484290197721</v>
       </c>
       <c r="E5" t="n">
-        <v>1309.714918859356</v>
+        <v>435.2601764215279</v>
       </c>
       <c r="F5" t="n">
-        <v>898.729014069748</v>
+        <v>428.3146756723244</v>
       </c>
       <c r="G5" t="n">
-        <v>480.7652059679349</v>
+        <v>414.3912716109153</v>
       </c>
       <c r="H5" t="n">
-        <v>153.5704860039377</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4598,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>662.4765915313284</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>662.4765915313284</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>662.4765915313284</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W7" t="n">
-        <v>373.0594214943678</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>373.0594214943678</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>373.0594214943678</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>1141.749745823171</v>
       </c>
       <c r="C8" t="n">
-        <v>808.0839286340174</v>
+        <v>1141.749745823171</v>
       </c>
       <c r="D8" t="n">
-        <v>808.0839286340174</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>808.0839286340174</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>801.138427884814</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>383.1746197830008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>55.97989981900366</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>773.5003462121387</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5027,43 +5027,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
@@ -5072,13 +5072,13 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590536</v>
@@ -5106,40 +5106,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061687</v>
+        <v>298.4322124465793</v>
       </c>
       <c r="M12" t="n">
-        <v>1890.372576454149</v>
+        <v>618.7675319762811</v>
       </c>
       <c r="N12" t="n">
-        <v>2623.573505376138</v>
+        <v>1423.179110240432</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819265</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819265</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,16 +5203,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765185</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706317</v>
+        <v>620.2426249169046</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>330.8254548799439</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819265</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>102.8359039819265</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5279,13 +5279,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5358,25 +5358,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>1122.004430061687</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M15" t="n">
-        <v>1890.372576454149</v>
+        <v>661.3152587829632</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1037.48362228133</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>1037.48362228133</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>782.7991340754431</v>
+        <v>620.2426249169049</v>
       </c>
       <c r="W16" t="n">
-        <v>493.3819640384826</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="X16" t="n">
-        <v>265.3924131404652</v>
+        <v>330.8254548799443</v>
       </c>
       <c r="Y16" t="n">
-        <v>265.3924131404652</v>
+        <v>110.0328757364142</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,13 +5525,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>1288.32563221405</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111988</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>1961.218619068864</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>1961.218619068864</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014039</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014039</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014039</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014039</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018334</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>416.118479144934</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>195.3259000014039</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,49 +5747,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028583</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028583</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M21" t="n">
-        <v>334.2881267578673</v>
+        <v>1009.263896089484</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>241.6669860691816</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>241.6669860691816</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>241.6669860691816</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>241.6669860691816</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765184</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706316</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336711</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028583</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028583</v>
+        <v>423.3154508994213</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028583</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028583</v>
+        <v>1026.585720682179</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578673</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022018</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028586</v>
+        <v>299.8132378906421</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028586</v>
+        <v>299.8132378906421</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>149.6965984783063</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028586</v>
+        <v>481.4617027208818</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028586</v>
+        <v>481.4617027208818</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,13 +6236,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>607.6841393416023</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1221.581209098491</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>1541.916528628193</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>245.130185042679</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C28" t="n">
-        <v>245.130185042679</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D28" t="n">
-        <v>245.130185042679</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1358.536531604474</v>
       </c>
       <c r="T28" t="n">
-        <v>1306.350032969985</v>
+        <v>1358.536531604474</v>
       </c>
       <c r="U28" t="n">
-        <v>1017.221394183544</v>
+        <v>1069.407892818032</v>
       </c>
       <c r="V28" t="n">
-        <v>762.5369059776569</v>
+        <v>814.7234046121456</v>
       </c>
       <c r="W28" t="n">
-        <v>473.1197359406963</v>
+        <v>814.7234046121456</v>
       </c>
       <c r="X28" t="n">
-        <v>245.130185042679</v>
+        <v>814.7234046121456</v>
       </c>
       <c r="Y28" t="n">
-        <v>245.130185042679</v>
+        <v>593.9308254686155</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6449,16 +6449,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>711.1141612171745</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605672</v>
+        <v>970.0833206816486</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.8466681110232</v>
+        <v>439.5324299542194</v>
       </c>
       <c r="C31" t="n">
-        <v>381.6713504644871</v>
+        <v>326.3571123076833</v>
       </c>
       <c r="D31" t="n">
-        <v>287.3155763335224</v>
+        <v>283.0033168475112</v>
       </c>
       <c r="E31" t="n">
-        <v>195.1633480324999</v>
+        <v>283.0033168475112</v>
       </c>
       <c r="F31" t="n">
-        <v>104.0342658159602</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818804</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386979</v>
+        <v>902.6804289818941</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220513</v>
+        <v>730.4517433652477</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598921</v>
+        <v>565.4200295030884</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,16 +6710,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L33" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="M33" t="n">
-        <v>508.1073603047985</v>
+        <v>549.3729734629516</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254951</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384656</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M36" t="n">
-        <v>865.5852378527472</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N36" t="n">
-        <v>1669.996816116898</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O36" t="n">
-        <v>2339.460577419557</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103133</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,7 +7120,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,40 +7184,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L39" t="n">
-        <v>381.3300194168668</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M39" t="n">
-        <v>1149.698165809328</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N39" t="n">
-        <v>1954.109744073479</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,55 +7306,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254952</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,19 +7421,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>711.1141612171746</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.893885873787</v>
+        <v>2234.893232091767</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
         <v>478.0475988506721</v>
@@ -7555,10 +7555,10 @@
         <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,7 +7570,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7728,25 +7728,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="M45" t="n">
-        <v>417.5524109899876</v>
+        <v>990.9427979105848</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,10 +7825,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>215.1781786975066</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,10 +8781,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9012,19 +9012,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>353.0203989689787</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9258,10 +9258,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417976</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417976</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,10 +10194,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849288</v>
+        <v>403.7190434820932</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10434,7 +10434,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11157,7 +11157,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>143.052848621788</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>82.39383318338577</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>167.1443537485702</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>72.61440165197888</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>48.29332756722442</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>2.415652360124341</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>94.47925069872893</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,16 +24418,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>168.9092208235021</v>
       </c>
       <c r="T28" t="n">
-        <v>30.90698584635175</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>50.49195888408534</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801204</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>104.5413092227029</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523568</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="F2" t="n">
+        <v>684300.8545409905</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.8545409907</v>
+      </c>
+      <c r="H2" t="n">
+        <v>684300.8545409907</v>
+      </c>
+      <c r="I2" t="n">
         <v>684300.8545409904</v>
       </c>
-      <c r="F2" t="n">
-        <v>684300.8545409907</v>
-      </c>
-      <c r="G2" t="n">
-        <v>684300.8545409905</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>684300.8545409908</v>
       </c>
-      <c r="I2" t="n">
-        <v>684300.8545409909</v>
-      </c>
-      <c r="J2" t="n">
-        <v>684300.8545409909</v>
-      </c>
       <c r="K2" t="n">
-        <v>711938.7403542239</v>
+        <v>711938.7403542235</v>
       </c>
       <c r="L2" t="n">
-        <v>718411.5486312484</v>
+        <v>718411.5486312489</v>
       </c>
       <c r="M2" t="n">
-        <v>718411.5486312485</v>
+        <v>718411.5486312489</v>
       </c>
       <c r="N2" t="n">
-        <v>718411.5486312486</v>
+        <v>718411.5486312488</v>
       </c>
       <c r="O2" t="n">
-        <v>718411.5486312486</v>
+        <v>718411.548631249</v>
       </c>
       <c r="P2" t="n">
-        <v>718411.548631249</v>
+        <v>718411.5486312488</v>
       </c>
     </row>
     <row r="3">
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086681</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26418,40 +26418,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759512</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758785</v>
+        <v>787.7936905759167</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905759225</v>
+        <v>787.7936905758411</v>
       </c>
       <c r="J4" t="n">
-        <v>787.793690575909</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477242</v>
+        <v>18952.41620477244</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189633</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189634</v>
@@ -26476,37 +26476,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93474.547827325</v>
+        <v>-93474.54782732503</v>
       </c>
       <c r="C6" t="n">
-        <v>496493.3313872194</v>
+        <v>496493.3313872195</v>
       </c>
       <c r="D6" t="n">
-        <v>496493.3313872193</v>
+        <v>496493.3313872196</v>
       </c>
       <c r="E6" t="n">
-        <v>66365.6984248018</v>
+        <v>66268.23929882968</v>
       </c>
       <c r="F6" t="n">
-        <v>591525.7349016982</v>
+        <v>591428.275775726</v>
       </c>
       <c r="G6" t="n">
-        <v>591525.7349016981</v>
+        <v>591428.2757757261</v>
       </c>
       <c r="H6" t="n">
-        <v>591525.7349016983</v>
+        <v>591428.2757757261</v>
       </c>
       <c r="I6" t="n">
-        <v>591525.7349016984</v>
+        <v>591428.2757757258</v>
       </c>
       <c r="J6" t="n">
-        <v>415102.5157091054</v>
+        <v>415005.0565831332</v>
       </c>
       <c r="K6" t="n">
-        <v>552195.510316383</v>
+        <v>552177.0165784482</v>
       </c>
       <c r="L6" t="n">
-        <v>587146.9550784598</v>
+        <v>587146.9550784603</v>
       </c>
       <c r="M6" t="n">
-        <v>462688.8466454896</v>
+        <v>462688.8466454901</v>
       </c>
       <c r="N6" t="n">
-        <v>597489.8618793269</v>
+        <v>597489.861879327</v>
       </c>
       <c r="O6" t="n">
-        <v>597489.8618793269</v>
+        <v>597489.8618793272</v>
       </c>
       <c r="P6" t="n">
-        <v>553327.2565764815</v>
+        <v>553327.2565764813</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,13 +26710,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964068</v>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108356</v>
+        <v>12.92863350108351</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>90.29705704176436</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,13 +27433,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>171.0476999143689</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>7.2288826848079</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>119.0102821165731</v>
       </c>
       <c r="I5" t="n">
-        <v>53.30008710312372</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>189.1619866646436</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>236.4663446304625</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,10 +27856,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>80.34493109267328</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>149.9147674262084</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.83478528866331</v>
+        <v>49.56792418188238</v>
       </c>
     </row>
     <row r="11">
@@ -28099,10 +28099,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28150,10 +28150,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.607718096583367e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29050,13 +29050,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -31127,7 +31127,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,7 +31136,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31148,7 +31148,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>115.481539230439</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,22 +31592,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>160.69674311333</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31622,19 +31622,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>60.29709682323596</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31841,28 +31841,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -32078,28 +32078,28 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>392.6063366508803</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>212.6272478467031</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>175.7292720009181</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961197</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,16 +32479,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O20" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32558,10 +32558,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>238.7786052255657</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32570,16 +32570,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>123.4283357138069</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,25 +32935,25 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>220.9982683546633</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33266,31 +33266,31 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,16 +33436,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33500,16 +33500,16 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>6.528285267804563</v>
       </c>
       <c r="N33" t="n">
-        <v>288.9613021006076</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33518,16 +33518,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,25 +33646,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33737,34 +33737,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>23.85840434223286</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>102.4943942860912</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33910,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33977,13 +33977,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>54.69678998811293</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>351.851620700325</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33992,16 +33992,16 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,25 +34120,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34211,19 +34211,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>91.84465193776708</v>
+        <v>60.50736221189908</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34232,13 +34232,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34454,28 +34454,28 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>380.4309478731437</v>
+        <v>443.4661064622188</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>242.1053372686586</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>392.982708636915</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>76.62379891763243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>210.8863650469604</v>
       </c>
       <c r="N15" t="n">
-        <v>740.6069989111005</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>536.1982776746847</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>360.217633226525</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415072</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197793</v>
+        <v>562.3496350535473</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>355.7143012373919</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197793</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>347.6220663928829</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629105</v>
+        <v>261.5850095600749</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>330.0993150957862</v>
       </c>
       <c r="N33" t="n">
-        <v>636.9619643608278</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>347.4294341702144</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>286.9827555116981</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>286.9827555116979</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>675.4226505283066</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>343.1107267700522</v>
+        <v>311.7734370441842</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>728.431610133364</v>
+        <v>791.466768722439</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
